--- a/experiment/nonconvex/MitsosBarton2006Ex313/compare/C-Estacionario/MitsosBarton2006Ex313_C-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/compare/C-Estacionario/MitsosBarton2006Ex313_C-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-2.0244000438249157</v>
       </c>
       <c r="E2">
-        <v>0.0070458</v>
+        <v>0.0096011</v>
       </c>
       <c r="F2">
-        <v>0.0160865</v>
+        <v>0.0332926</v>
       </c>
       <c r="G2">
-        <v>0.008403963406408093</v>
+        <v>0.017918101449275362</v>
       </c>
       <c r="H2">
         <v>2717</v>
